--- a/Assumptions.xlsx
+++ b/Assumptions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44A9384-956B-47E8-9E56-AA4A78660D37}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DFF704-3612-4545-8A84-D9C6DDB4C247}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,9 +127,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -144,6 +141,9 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,17 +441,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
@@ -460,28 +461,28 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
@@ -489,9 +490,9 @@
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="1"/>
@@ -500,25 +501,25 @@
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
@@ -575,11 +576,12 @@
       <c r="I16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A1:B3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="E4:F5"/>
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A2:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B4:B5"/>
